--- a/Mapa Proyecto.xlsx
+++ b/Mapa Proyecto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Y</t>
   </si>
@@ -31,6 +31,36 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>A = Arbusto</t>
+  </si>
+  <si>
+    <t>B = Bosque</t>
+  </si>
+  <si>
+    <t>C = Cueva</t>
+  </si>
+  <si>
+    <t>D = Ceniza</t>
+  </si>
+  <si>
+    <t>G = Pasto</t>
+  </si>
+  <si>
+    <t>L = Lago</t>
+  </si>
+  <si>
+    <t>P = Playa</t>
+  </si>
+  <si>
+    <t>R = Risco</t>
+  </si>
+  <si>
+    <t>Z = Casa</t>
+  </si>
+  <si>
+    <t>Definiciones de mapa</t>
   </si>
 </sst>
 </file>
@@ -418,16 +448,13 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -439,13 +466,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -749,45 +779,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK7" sqref="AK7"/>
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
-      <c r="S1" s="36" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="S1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="38"/>
-      <c r="U1" s="43" t="s">
+      <c r="T1" s="43"/>
+      <c r="U1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="45"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="38"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
       <c r="C2">
         <v>0</v>
       </c>
@@ -809,8 +839,8 @@
       <c r="I2">
         <v>6</v>
       </c>
-      <c r="S2" s="39"/>
-      <c r="T2" s="37"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="45"/>
       <c r="U2">
         <v>0</v>
       </c>
@@ -834,7 +864,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -847,7 +877,7 @@
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
       <c r="I3" s="22"/>
-      <c r="S3" s="40" t="s">
+      <c r="S3" s="39" t="s">
         <v>0</v>
       </c>
       <c r="T3">
@@ -862,7 +892,7 @@
       <c r="AA3" s="33"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="40"/>
       <c r="B4">
         <v>1</v>
       </c>
@@ -873,7 +903,7 @@
       <c r="G4" s="21"/>
       <c r="H4" s="13"/>
       <c r="I4" s="23"/>
-      <c r="S4" s="41"/>
+      <c r="S4" s="40"/>
       <c r="T4">
         <v>1</v>
       </c>
@@ -886,7 +916,7 @@
       <c r="AA4" s="35"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="40"/>
       <c r="B5">
         <v>2</v>
       </c>
@@ -897,7 +927,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="21"/>
       <c r="I5" s="23"/>
-      <c r="S5" s="41"/>
+      <c r="S5" s="40"/>
       <c r="T5">
         <v>2</v>
       </c>
@@ -910,7 +940,7 @@
       <c r="AA5" s="35"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="40"/>
       <c r="B6">
         <v>3</v>
       </c>
@@ -921,7 +951,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
-      <c r="S6" s="41"/>
+      <c r="S6" s="40"/>
       <c r="T6">
         <v>3</v>
       </c>
@@ -934,7 +964,7 @@
       <c r="AA6" s="28"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="40"/>
       <c r="B7">
         <v>4</v>
       </c>
@@ -945,7 +975,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="19"/>
-      <c r="S7" s="41"/>
+      <c r="S7" s="40"/>
       <c r="T7">
         <v>4</v>
       </c>
@@ -958,7 +988,7 @@
       <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="40"/>
       <c r="B8">
         <v>5</v>
       </c>
@@ -969,7 +999,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="12"/>
-      <c r="S8" s="41"/>
+      <c r="S8" s="40"/>
       <c r="T8">
         <v>5</v>
       </c>
@@ -982,7 +1012,7 @@
       <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
+      <c r="A9" s="41"/>
       <c r="B9">
         <v>6</v>
       </c>
@@ -993,7 +1023,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="11"/>
-      <c r="S9" s="42"/>
+      <c r="S9" s="41"/>
       <c r="T9">
         <v>6</v>
       </c>
@@ -1007,23 +1037,23 @@
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="38"/>
-      <c r="L11" s="43" t="s">
+      <c r="K11" s="43"/>
+      <c r="L11" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="45"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="38"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="39"/>
-      <c r="K12" s="37"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
       <c r="L12">
         <v>0</v>
       </c>
@@ -1047,7 +1077,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="39" t="s">
         <v>0</v>
       </c>
       <c r="K13">
@@ -1062,7 +1092,7 @@
       <c r="R13" s="33"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="J14" s="41"/>
+      <c r="J14" s="40"/>
       <c r="K14">
         <v>1</v>
       </c>
@@ -1075,7 +1105,7 @@
       <c r="R14" s="35"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="J15" s="41"/>
+      <c r="J15" s="40"/>
       <c r="K15">
         <v>2</v>
       </c>
@@ -1088,7 +1118,7 @@
       <c r="R15" s="35"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="J16" s="41"/>
+      <c r="J16" s="40"/>
       <c r="K16">
         <v>3</v>
       </c>
@@ -1100,8 +1130,8 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J17" s="41"/>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="J17" s="40"/>
       <c r="K17">
         <v>4</v>
       </c>
@@ -1113,8 +1143,8 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J18" s="41"/>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="J18" s="40"/>
       <c r="K18">
         <v>5</v>
       </c>
@@ -1126,8 +1156,8 @@
       <c r="Q18" s="27"/>
       <c r="R18" s="28"/>
     </row>
-    <row r="19" spans="10:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J19" s="42"/>
+    <row r="19" spans="4:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="41"/>
       <c r="K19">
         <v>6</v>
       </c>
@@ -1139,25 +1169,69 @@
       <c r="Q19" s="30"/>
       <c r="R19" s="31"/>
     </row>
-    <row r="20" spans="10:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="10:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="10:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="10:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="10:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="10:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="10:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="10:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="L11:R11"/>
     <mergeCell ref="U1:AA1"/>
     <mergeCell ref="S3:S9"/>
     <mergeCell ref="J13:J19"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
